--- a/Review/PO_SB_Documentation_TeamA_Review.xlsx
+++ b/Review/PO_SB_Documentation_TeamA_Review.xlsx
@@ -237,7 +237,7 @@
     <t>Improve chapter format</t>
   </si>
   <si>
-    <t>ch1,#</t>
+    <t>ch1, #</t>
   </si>
 </sst>
 </file>
@@ -390,30 +390,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF57BB8A"/>
-          <bgColor rgb="FF57BB8A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <b/>
@@ -699,8 +676,8 @@
   </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1307,32 +1284,32 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="H22:H29 E22 A2:H21">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$H2 = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H29 E22 A2:H21">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$H2= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="7" priority="19">
+    <cfRule type="expression" dxfId="3" priority="19">
       <formula>#REF! = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="6" priority="20">
+    <cfRule type="expression" dxfId="2" priority="20">
       <formula>#REF!= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="5" priority="23">
+    <cfRule type="expression" dxfId="1" priority="23">
       <formula>#REF! = "Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="4" priority="24">
+    <cfRule type="expression" dxfId="0" priority="24">
       <formula>#REF!= "Open"</formula>
     </cfRule>
   </conditionalFormatting>
